--- a/Presentation/scraped.xlsx
+++ b/Presentation/scraped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabou\OneDrive\Desktop\TechLunch_31032025\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B1A1A-9F58-4C2E-ACBE-F42D3C697900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD34D9D-39F5-4FE3-AFC0-C08814A203C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17565" yWindow="4305" windowWidth="18945" windowHeight="15060" xr2:uid="{E55EFA01-09C5-4035-819B-954D79547012}"/>
   </bookViews>
